--- a/zzyTest/Goods.xlsx
+++ b/zzyTest/Goods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\isem2006\ISEM_Grop_proj\zzyTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15451BEF-9B1A-4D83-A1AA-0F4FFACBE41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FF07A6-DA73-4D78-8E99-E4AE1C5315EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,17 +495,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="17.08203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -519,7 +519,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -533,7 +533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -547,7 +547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -561,7 +561,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -575,7 +575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -589,7 +589,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -603,7 +603,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -617,7 +617,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -631,7 +631,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -645,7 +645,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -659,7 +659,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -673,7 +673,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -687,7 +687,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -701,7 +701,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -715,7 +715,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -729,7 +729,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -743,7 +743,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -757,7 +757,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -771,7 +771,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -785,7 +785,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>

--- a/zzyTest/Goods.xlsx
+++ b/zzyTest/Goods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LYLJack\Desktop\isemGroupProject\Version2\ISEM_Grop_proj-master\ISEM_Grop_proj\zzyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FF07A6-DA73-4D78-8E99-E4AE1C5315EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76B7E03-20DD-4E9F-AC5B-C3EFE0C98453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="16044" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,51 +56,6 @@
     <t>food5</t>
   </si>
   <si>
-    <t>food6</t>
-  </si>
-  <si>
-    <t>food7</t>
-  </si>
-  <si>
-    <t>food8</t>
-  </si>
-  <si>
-    <t>food9</t>
-  </si>
-  <si>
-    <t>food10</t>
-  </si>
-  <si>
-    <t>food11</t>
-  </si>
-  <si>
-    <t>food12</t>
-  </si>
-  <si>
-    <t>food13</t>
-  </si>
-  <si>
-    <t>food14</t>
-  </si>
-  <si>
-    <t>food15</t>
-  </si>
-  <si>
-    <t>food16</t>
-  </si>
-  <si>
-    <t>food17</t>
-  </si>
-  <si>
-    <t>food18</t>
-  </si>
-  <si>
-    <t>food19</t>
-  </si>
-  <si>
-    <t>food20</t>
-  </si>
-  <si>
     <t>1121.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,6 +122,54 @@
   <si>
     <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item3</t>
+  </si>
+  <si>
+    <t>item4</t>
+  </si>
+  <si>
+    <t>item5</t>
+  </si>
+  <si>
+    <t>necessities1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necessities2</t>
+  </si>
+  <si>
+    <t>necessities3</t>
+  </si>
+  <si>
+    <t>necessities4</t>
+  </si>
+  <si>
+    <t>necessities5</t>
+  </si>
+  <si>
+    <t>tools1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools2</t>
+  </si>
+  <si>
+    <t>tools3</t>
+  </si>
+  <si>
+    <t>tools4</t>
+  </si>
+  <si>
+    <t>tools5</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -516,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,10 +530,10 @@
         <v>122</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +541,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +555,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -566,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>103</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,223 +583,223 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>104</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B9">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>108</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B11">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>109</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>110</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B14">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>113</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B16">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B17">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>115</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B19">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>118</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B21">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>119</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
